--- a/fastqFiles/fastq_fullrun_hbrown_07.12.19.xlsx
+++ b/fastqFiles/fastq_fullrun_hbrown_07.12.19.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5D5910-A48D-8642-AE3A-33A089B102BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65C6136-7106-2C49-983C-5749E21EF6C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/fastqFiles/fastq_fullrun_hbrown_07.12.19.xlsx
+++ b/fastqFiles/fastq_fullrun_hbrown_07.12.19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65C6136-7106-2C49-983C-5749E21EF6C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D6BC6A-297F-2240-83AB-489C2352C1FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="69">
   <si>
     <t>libraryDate</t>
   </si>
@@ -39,9 +39,6 @@
     <t>runNumber</t>
   </si>
   <si>
-    <t>laneNumber</t>
-  </si>
-  <si>
     <t>sequencerModel</t>
   </si>
   <si>
@@ -217,9 +214,6 @@
   </si>
   <si>
     <t>Brent_2b_20_GTAC_20_SIC_Index2_6_ACAGATAATC_GACCTTGT_S47_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>leaving out</t>
   </si>
   <si>
     <t>Brent_2b_21_GTAC_21_SIC_Index2_6_CTCAATGATC_GACCTTGT_S48_R1_001.fastq.gz</t>
@@ -629,18 +623,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z53"/>
+  <dimension ref="A1:Y53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1024" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,21 +656,19 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -690,14 +682,13 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -705,28 +696,28 @@
       <c r="D2" s="5">
         <v>3722</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7">
+        <v>5.77</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1.00990038138507</v>
+      </c>
+      <c r="J2">
+        <v>7833442</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="7">
-        <v>5.77</v>
-      </c>
-      <c r="J2" s="7">
-        <v>1.00990038138507</v>
-      </c>
-      <c r="K2">
-        <v>7833442</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -740,14 +731,13 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -755,34 +745,34 @@
       <c r="D3">
         <v>3722</v>
       </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
-        <v>16</v>
+      <c r="H3">
+        <v>8.61</v>
       </c>
       <c r="I3">
-        <v>8.61</v>
+        <v>0.81165864076043703</v>
       </c>
       <c r="J3">
-        <v>0.81165864076043703</v>
-      </c>
-      <c r="K3">
         <v>8535985</v>
       </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -790,34 +780,34 @@
       <c r="D4">
         <v>3722</v>
       </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
-        <v>16</v>
+      <c r="H4">
+        <v>3.69</v>
       </c>
       <c r="I4">
-        <v>3.69</v>
+        <v>0.81870026525198902</v>
       </c>
       <c r="J4">
-        <v>0.81870026525198902</v>
-      </c>
-      <c r="K4">
         <v>8586676</v>
       </c>
-      <c r="L4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -825,34 +815,34 @@
       <c r="D5">
         <v>3722</v>
       </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" t="s">
-        <v>16</v>
+      <c r="H5">
+        <v>0.88500000000000001</v>
       </c>
       <c r="I5">
-        <v>0.88500000000000001</v>
+        <v>1.61652383351069</v>
       </c>
       <c r="J5">
-        <v>1.61652383351069</v>
-      </c>
-      <c r="K5">
         <v>8635440</v>
       </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -860,34 +850,34 @@
       <c r="D6">
         <v>3722</v>
       </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" t="s">
-        <v>16</v>
+      <c r="H6">
+        <v>2.71</v>
       </c>
       <c r="I6">
-        <v>2.71</v>
+        <v>0.60407122493271603</v>
       </c>
       <c r="J6">
-        <v>0.60407122493271603</v>
-      </c>
-      <c r="K6">
         <v>8640316</v>
       </c>
-      <c r="L6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -895,34 +885,34 @@
       <c r="D7">
         <v>3722</v>
       </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="H7" t="s">
-        <v>16</v>
+      <c r="H7">
+        <v>24</v>
       </c>
       <c r="I7">
-        <v>24</v>
+        <v>0.85905886190507397</v>
       </c>
       <c r="J7">
-        <v>0.85905886190507397</v>
-      </c>
-      <c r="K7">
         <v>7273005</v>
       </c>
-      <c r="L7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -930,34 +920,34 @@
       <c r="D8">
         <v>3722</v>
       </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
       <c r="F8" t="s">
         <v>14</v>
       </c>
       <c r="G8" t="s">
         <v>15</v>
       </c>
-      <c r="H8" t="s">
-        <v>16</v>
+      <c r="H8">
+        <v>10.9</v>
       </c>
       <c r="I8">
-        <v>10.9</v>
+        <v>0.78809723618172201</v>
       </c>
       <c r="J8">
-        <v>0.78809723618172201</v>
-      </c>
-      <c r="K8">
         <v>9414942</v>
       </c>
-      <c r="L8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -965,34 +955,34 @@
       <c r="D9">
         <v>3722</v>
       </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
       <c r="F9" t="s">
         <v>14</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>
       </c>
-      <c r="H9" t="s">
-        <v>16</v>
+      <c r="H9">
+        <v>23</v>
       </c>
       <c r="I9">
+        <v>0.88236295601664305</v>
+      </c>
+      <c r="J9">
+        <v>9169569</v>
+      </c>
+      <c r="K9" t="s">
         <v>23</v>
       </c>
-      <c r="J9">
-        <v>0.88236295601664305</v>
-      </c>
-      <c r="K9">
-        <v>9169569</v>
-      </c>
-      <c r="L9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1000,34 +990,34 @@
       <c r="D10">
         <v>3722</v>
       </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
       </c>
-      <c r="H10" t="s">
-        <v>16</v>
+      <c r="H10">
+        <v>0.67800000000000005</v>
       </c>
       <c r="I10">
-        <v>0.67800000000000005</v>
+        <v>1.3732472397923301</v>
       </c>
       <c r="J10">
-        <v>1.3732472397923301</v>
-      </c>
-      <c r="K10">
         <v>9091009</v>
       </c>
-      <c r="L10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1035,209 +1025,209 @@
       <c r="D11">
         <v>3722</v>
       </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
       </c>
-      <c r="H11" t="s">
-        <v>16</v>
+      <c r="H11">
+        <v>0.22600000000000001</v>
       </c>
       <c r="I11">
-        <v>0.22600000000000001</v>
+        <v>11.5511072441658</v>
       </c>
       <c r="J11">
-        <v>11.5511072441658</v>
-      </c>
-      <c r="K11">
         <v>3121</v>
       </c>
-      <c r="L11" t="s">
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>3722</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12">
+        <v>46.6</v>
+      </c>
+      <c r="I12">
+        <v>0.80046863824002101</v>
+      </c>
+      <c r="J12">
+        <v>7900814</v>
+      </c>
+      <c r="K12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>3722</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12">
-        <v>46.6</v>
-      </c>
-      <c r="J12">
-        <v>0.80046863824002101</v>
-      </c>
-      <c r="K12">
-        <v>7900814</v>
-      </c>
-      <c r="L12" t="s">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>3722</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13">
+        <v>60.6</v>
+      </c>
+      <c r="I13">
+        <v>0.83244948583954304</v>
+      </c>
+      <c r="J13">
+        <v>6381707</v>
+      </c>
+      <c r="K13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>3722</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13">
-        <v>60.6</v>
-      </c>
-      <c r="J13">
-        <v>0.83244948583954304</v>
-      </c>
-      <c r="K13">
-        <v>6381707</v>
-      </c>
-      <c r="L13" t="s">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>3722</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14">
+        <v>14.8</v>
+      </c>
+      <c r="I14">
+        <v>0.77411993431058101</v>
+      </c>
+      <c r="J14">
+        <v>7140764</v>
+      </c>
+      <c r="K14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>13</v>
-      </c>
-      <c r="D14">
-        <v>3722</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14">
-        <v>14.8</v>
-      </c>
-      <c r="J14">
-        <v>0.77411993431058101</v>
-      </c>
-      <c r="K14">
-        <v>7140764</v>
-      </c>
-      <c r="L14" t="s">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>3722</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15">
+        <v>17.5</v>
+      </c>
+      <c r="I15">
+        <v>0.70791801494488804</v>
+      </c>
+      <c r="J15">
+        <v>8622101</v>
+      </c>
+      <c r="K15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>3722</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15">
-        <v>17.5</v>
-      </c>
-      <c r="J15">
-        <v>0.70791801494488804</v>
-      </c>
-      <c r="K15">
-        <v>8622101</v>
-      </c>
-      <c r="L15" t="s">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>3722</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <v>1.69</v>
+      </c>
+      <c r="I16">
+        <v>0.86828378935297201</v>
+      </c>
+      <c r="J16">
+        <v>8671457</v>
+      </c>
+      <c r="K16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-      <c r="D16">
-        <v>3722</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16">
-        <v>1.69</v>
-      </c>
-      <c r="J16">
-        <v>0.86828378935297201</v>
-      </c>
-      <c r="K16">
-        <v>8671457</v>
-      </c>
-      <c r="L16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1245,34 +1235,34 @@
       <c r="D17">
         <v>3722</v>
       </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
       <c r="F17" t="s">
         <v>14</v>
       </c>
       <c r="G17" t="s">
         <v>15</v>
       </c>
-      <c r="H17" t="s">
-        <v>16</v>
+      <c r="H17">
+        <v>0.188</v>
       </c>
       <c r="I17">
-        <v>0.188</v>
+        <v>17.649348047785502</v>
       </c>
       <c r="J17">
-        <v>17.649348047785502</v>
-      </c>
-      <c r="K17">
         <v>41432</v>
       </c>
-      <c r="L17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1280,34 +1270,34 @@
       <c r="D18">
         <v>3722</v>
       </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
       <c r="F18" t="s">
         <v>14</v>
       </c>
       <c r="G18" t="s">
         <v>15</v>
       </c>
-      <c r="H18" t="s">
-        <v>16</v>
+      <c r="H18">
+        <v>27</v>
       </c>
       <c r="I18">
-        <v>27</v>
+        <v>0.76401285283410403</v>
       </c>
       <c r="J18">
-        <v>0.76401285283410403</v>
-      </c>
-      <c r="K18">
         <v>9996896</v>
       </c>
-      <c r="L18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1315,34 +1305,34 @@
       <c r="D19">
         <v>3722</v>
       </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
       <c r="F19" t="s">
         <v>14</v>
       </c>
       <c r="G19" t="s">
         <v>15</v>
       </c>
-      <c r="H19" t="s">
-        <v>16</v>
+      <c r="H19">
+        <v>37</v>
       </c>
       <c r="I19">
-        <v>37</v>
+        <v>0.90008990116444298</v>
       </c>
       <c r="J19">
-        <v>0.90008990116444298</v>
-      </c>
-      <c r="K19">
         <v>9340764</v>
       </c>
-      <c r="L19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1350,34 +1340,34 @@
       <c r="D20">
         <v>3722</v>
       </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
       <c r="F20" t="s">
         <v>14</v>
       </c>
       <c r="G20" t="s">
         <v>15</v>
       </c>
-      <c r="H20" t="s">
-        <v>16</v>
+      <c r="H20">
+        <v>27.2</v>
       </c>
       <c r="I20">
-        <v>27.2</v>
+        <v>0.81105818396664597</v>
       </c>
       <c r="J20">
-        <v>0.81105818396664597</v>
-      </c>
-      <c r="K20">
         <v>9326794</v>
       </c>
-      <c r="L20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1385,34 +1375,34 @@
       <c r="D21">
         <v>3722</v>
       </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
       <c r="F21" t="s">
         <v>14</v>
       </c>
       <c r="G21" t="s">
         <v>15</v>
       </c>
-      <c r="H21" t="s">
-        <v>16</v>
+      <c r="H21">
+        <v>37</v>
       </c>
       <c r="I21">
-        <v>37</v>
+        <v>0.82489650077284005</v>
       </c>
       <c r="J21">
-        <v>0.82489650077284005</v>
-      </c>
-      <c r="K21">
         <v>7913578</v>
       </c>
-      <c r="L21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1420,34 +1410,34 @@
       <c r="D22">
         <v>3722</v>
       </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
       <c r="F22" t="s">
         <v>14</v>
       </c>
       <c r="G22" t="s">
         <v>15</v>
       </c>
-      <c r="H22" t="s">
-        <v>16</v>
+      <c r="H22">
+        <v>0.17399999999999999</v>
       </c>
       <c r="I22">
-        <v>0.17399999999999999</v>
+        <v>9.5700701096079808</v>
       </c>
       <c r="J22">
-        <v>9.5700701096079808</v>
-      </c>
-      <c r="K22">
         <v>1154752</v>
       </c>
-      <c r="L22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1455,34 +1445,34 @@
       <c r="D23">
         <v>3722</v>
       </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
       <c r="F23" t="s">
         <v>14</v>
       </c>
       <c r="G23" t="s">
         <v>15</v>
       </c>
-      <c r="H23" t="s">
-        <v>16</v>
+      <c r="H23">
+        <v>0.16300000000000001</v>
       </c>
       <c r="I23">
-        <v>0.16300000000000001</v>
+        <v>95.090364992150697</v>
       </c>
       <c r="J23">
-        <v>95.090364992150697</v>
-      </c>
-      <c r="K23">
         <v>509</v>
       </c>
-      <c r="L23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1490,34 +1480,34 @@
       <c r="D24">
         <v>3722</v>
       </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
       <c r="F24" t="s">
         <v>14</v>
       </c>
       <c r="G24" t="s">
         <v>15</v>
       </c>
-      <c r="H24" t="s">
-        <v>16</v>
+      <c r="H24">
+        <v>6.16</v>
       </c>
       <c r="I24">
-        <v>6.16</v>
+        <v>1.02749388270916</v>
       </c>
       <c r="J24">
-        <v>1.02749388270916</v>
-      </c>
-      <c r="K24">
         <v>11283597</v>
       </c>
-      <c r="L24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1525,34 +1515,34 @@
       <c r="D25">
         <v>3722</v>
       </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
       <c r="F25" t="s">
         <v>14</v>
       </c>
       <c r="G25" t="s">
         <v>15</v>
       </c>
-      <c r="H25" t="s">
-        <v>16</v>
+      <c r="H25">
+        <v>0.78</v>
       </c>
       <c r="I25">
-        <v>0.78</v>
+        <v>1.4539697732543999</v>
       </c>
       <c r="J25">
-        <v>1.4539697732543999</v>
-      </c>
-      <c r="K25">
         <v>8017262</v>
       </c>
-      <c r="L25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1560,34 +1550,34 @@
       <c r="D26">
         <v>3722</v>
       </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
       <c r="F26" t="s">
         <v>14</v>
       </c>
       <c r="G26" t="s">
         <v>15</v>
       </c>
-      <c r="H26" t="s">
-        <v>16</v>
+      <c r="H26">
+        <v>16.7</v>
       </c>
       <c r="I26">
-        <v>16.7</v>
+        <v>0.59832139770341997</v>
       </c>
       <c r="J26">
-        <v>0.59832139770341997</v>
-      </c>
-      <c r="K26">
         <v>7988800</v>
       </c>
-      <c r="L26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1595,34 +1585,34 @@
       <c r="D27">
         <v>3722</v>
       </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
       <c r="F27" t="s">
         <v>14</v>
       </c>
       <c r="G27" t="s">
         <v>15</v>
       </c>
-      <c r="H27" t="s">
-        <v>16</v>
+      <c r="H27">
+        <v>33.5</v>
       </c>
       <c r="I27">
-        <v>33.5</v>
+        <v>0.81601188872423602</v>
       </c>
       <c r="J27">
-        <v>0.81601188872423602</v>
-      </c>
-      <c r="K27">
         <v>8875830</v>
       </c>
-      <c r="L27" t="s">
+      <c r="K27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="B28" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
@@ -1630,28 +1620,28 @@
       <c r="D28" s="5">
         <v>3722</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F28" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>16</v>
+      <c r="H28" s="7">
+        <v>12.4</v>
       </c>
       <c r="I28" s="7">
-        <v>12.4</v>
-      </c>
-      <c r="J28" s="7">
         <v>1.0263458275489701</v>
       </c>
-      <c r="K28">
+      <c r="J28">
         <v>8649224</v>
       </c>
-      <c r="L28" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="K28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -1665,14 +1655,13 @@
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -1680,34 +1669,34 @@
       <c r="D29">
         <v>3722</v>
       </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
       <c r="F29" t="s">
         <v>14</v>
       </c>
       <c r="G29" t="s">
         <v>15</v>
       </c>
-      <c r="H29" t="s">
-        <v>16</v>
+      <c r="H29">
+        <v>6.32</v>
       </c>
       <c r="I29">
-        <v>6.32</v>
+        <v>1.1482097191643801</v>
       </c>
       <c r="J29">
-        <v>1.1482097191643801</v>
-      </c>
-      <c r="K29">
         <v>8640764</v>
       </c>
-      <c r="L29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -1715,34 +1704,34 @@
       <c r="D30">
         <v>3722</v>
       </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
       <c r="F30" t="s">
         <v>14</v>
       </c>
       <c r="G30" t="s">
         <v>15</v>
       </c>
-      <c r="H30" t="s">
-        <v>16</v>
+      <c r="H30">
+        <v>322</v>
       </c>
       <c r="I30">
-        <v>322</v>
+        <v>6.37948226270374</v>
       </c>
       <c r="J30">
-        <v>6.37948226270374</v>
-      </c>
-      <c r="K30">
         <v>7845942</v>
       </c>
-      <c r="L30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -1750,34 +1739,34 @@
       <c r="D31">
         <v>3722</v>
       </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
       <c r="F31" t="s">
         <v>14</v>
       </c>
       <c r="G31" t="s">
         <v>15</v>
       </c>
-      <c r="H31" t="s">
-        <v>16</v>
+      <c r="H31">
+        <v>29.7</v>
       </c>
       <c r="I31">
-        <v>29.7</v>
+        <v>0.897173830969203</v>
       </c>
       <c r="J31">
-        <v>0.897173830969203</v>
-      </c>
-      <c r="K31">
         <v>9462032</v>
       </c>
-      <c r="L31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -1785,34 +1774,34 @@
       <c r="D32">
         <v>3722</v>
       </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
       <c r="F32" t="s">
         <v>14</v>
       </c>
       <c r="G32" t="s">
         <v>15</v>
       </c>
-      <c r="H32" t="s">
-        <v>16</v>
+      <c r="H32">
+        <v>306</v>
       </c>
       <c r="I32">
-        <v>306</v>
+        <v>0.5</v>
       </c>
       <c r="J32">
-        <v>0.5</v>
-      </c>
-      <c r="K32">
         <v>27381545</v>
       </c>
-      <c r="L32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -1820,34 +1809,34 @@
       <c r="D33">
         <v>3722</v>
       </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
       <c r="F33" t="s">
         <v>14</v>
       </c>
       <c r="G33" t="s">
         <v>15</v>
       </c>
-      <c r="H33" t="s">
-        <v>16</v>
+      <c r="H33">
+        <v>18.100000000000001</v>
       </c>
       <c r="I33">
-        <v>18.100000000000001</v>
+        <v>4.1482543640897802</v>
       </c>
       <c r="J33">
-        <v>4.1482543640897802</v>
-      </c>
-      <c r="K33">
         <v>6889818</v>
       </c>
-      <c r="L33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -1855,34 +1844,34 @@
       <c r="D34">
         <v>3722</v>
       </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
       <c r="F34" t="s">
         <v>14</v>
       </c>
       <c r="G34" t="s">
         <v>15</v>
       </c>
-      <c r="H34" t="s">
-        <v>16</v>
+      <c r="H34">
+        <v>11.3</v>
       </c>
       <c r="I34">
-        <v>11.3</v>
+        <v>0.561028667790894</v>
       </c>
       <c r="J34">
-        <v>0.561028667790894</v>
-      </c>
-      <c r="K34">
         <v>9085370</v>
       </c>
-      <c r="L34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C35">
         <v>8</v>
@@ -1890,34 +1879,34 @@
       <c r="D35">
         <v>3722</v>
       </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
       <c r="F35" t="s">
         <v>14</v>
       </c>
       <c r="G35" t="s">
         <v>15</v>
       </c>
-      <c r="H35" t="s">
-        <v>16</v>
+      <c r="H35">
+        <v>7.8</v>
       </c>
       <c r="I35">
-        <v>7.8</v>
+        <v>0.80220737840779599</v>
       </c>
       <c r="J35">
-        <v>0.80220737840779599</v>
-      </c>
-      <c r="K35">
         <v>9759542</v>
       </c>
-      <c r="L35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36">
         <v>9</v>
@@ -1925,34 +1914,34 @@
       <c r="D36">
         <v>3722</v>
       </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
       <c r="F36" t="s">
         <v>14</v>
       </c>
       <c r="G36" t="s">
         <v>15</v>
       </c>
-      <c r="H36" t="s">
-        <v>16</v>
+      <c r="H36">
+        <v>139</v>
       </c>
       <c r="I36">
-        <v>139</v>
+        <v>5.6416822112938796</v>
       </c>
       <c r="J36">
-        <v>5.6416822112938796</v>
-      </c>
-      <c r="K36">
         <v>8222116</v>
       </c>
-      <c r="L36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C37">
         <v>10</v>
@@ -1960,209 +1949,209 @@
       <c r="D37">
         <v>3722</v>
       </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
       <c r="F37" t="s">
         <v>14</v>
       </c>
       <c r="G37" t="s">
         <v>15</v>
       </c>
-      <c r="H37" t="s">
-        <v>16</v>
+      <c r="H37">
+        <v>3.31</v>
       </c>
       <c r="I37">
-        <v>3.31</v>
+        <v>2.52057814269553</v>
       </c>
       <c r="J37">
-        <v>2.52057814269553</v>
-      </c>
-      <c r="K37">
         <v>7751183</v>
       </c>
-      <c r="L37" t="s">
+      <c r="K37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>11</v>
+      </c>
+      <c r="D38">
+        <v>3722</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38">
+        <v>238</v>
+      </c>
+      <c r="I38">
+        <v>4.5536545305228602</v>
+      </c>
+      <c r="J38">
+        <v>7395128</v>
+      </c>
+      <c r="K38" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38">
-        <v>11</v>
-      </c>
-      <c r="D38">
-        <v>3722</v>
-      </c>
-      <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38">
-        <v>238</v>
-      </c>
-      <c r="J38">
-        <v>4.5536545305228602</v>
-      </c>
-      <c r="K38">
-        <v>7395128</v>
-      </c>
-      <c r="L38" t="s">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>3722</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39">
+        <v>34.9</v>
+      </c>
+      <c r="I39">
+        <v>0.69682054289544204</v>
+      </c>
+      <c r="J39">
+        <v>8760543</v>
+      </c>
+      <c r="K39" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39">
-        <v>12</v>
-      </c>
-      <c r="D39">
-        <v>3722</v>
-      </c>
-      <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39">
-        <v>34.9</v>
-      </c>
-      <c r="J39">
-        <v>0.69682054289544204</v>
-      </c>
-      <c r="K39">
-        <v>8760543</v>
-      </c>
-      <c r="L39" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <v>3722</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40">
+        <v>2.99</v>
+      </c>
+      <c r="I40">
+        <v>2.58930369841823</v>
+      </c>
+      <c r="J40">
+        <v>8061696</v>
+      </c>
+      <c r="K40" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40">
-        <v>13</v>
-      </c>
-      <c r="D40">
-        <v>3722</v>
-      </c>
-      <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40">
-        <v>2.99</v>
-      </c>
-      <c r="J40">
-        <v>2.58930369841823</v>
-      </c>
-      <c r="K40">
-        <v>8061696</v>
-      </c>
-      <c r="L40" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <v>3722</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="I41">
+        <v>5.7696576601574696</v>
+      </c>
+      <c r="J41">
+        <v>7262639</v>
+      </c>
+      <c r="K41" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41">
-        <v>14</v>
-      </c>
-      <c r="D41">
-        <v>3722</v>
-      </c>
-      <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41">
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="J41">
-        <v>5.7696576601574696</v>
-      </c>
-      <c r="K41">
-        <v>7262639</v>
-      </c>
-      <c r="L41" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>3722</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42">
+        <v>106</v>
+      </c>
+      <c r="I42">
+        <v>5.1380694980695001</v>
+      </c>
+      <c r="J42">
+        <v>6568539</v>
+      </c>
+      <c r="K42" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42">
-        <v>15</v>
-      </c>
-      <c r="D42">
-        <v>3722</v>
-      </c>
-      <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42">
-        <v>106</v>
-      </c>
-      <c r="J42">
-        <v>5.1380694980695001</v>
-      </c>
-      <c r="K42">
-        <v>6568539</v>
-      </c>
-      <c r="L42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C43">
         <v>16</v>
@@ -2170,34 +2159,34 @@
       <c r="D43">
         <v>3722</v>
       </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
       <c r="F43" t="s">
         <v>14</v>
       </c>
       <c r="G43" t="s">
         <v>15</v>
       </c>
-      <c r="H43" t="s">
-        <v>16</v>
+      <c r="H43">
+        <v>1.24</v>
       </c>
       <c r="I43">
-        <v>1.24</v>
+        <v>4.4950818786142799</v>
       </c>
       <c r="J43">
-        <v>4.4950818786142799</v>
-      </c>
-      <c r="K43">
         <v>6773584</v>
       </c>
-      <c r="L43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C44">
         <v>17</v>
@@ -2205,34 +2194,34 @@
       <c r="D44">
         <v>3722</v>
       </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
       <c r="F44" t="s">
         <v>14</v>
       </c>
       <c r="G44" t="s">
         <v>15</v>
       </c>
-      <c r="H44" t="s">
-        <v>16</v>
+      <c r="H44">
+        <v>205</v>
       </c>
       <c r="I44">
-        <v>205</v>
+        <v>0.62779989809974901</v>
       </c>
       <c r="J44">
-        <v>0.62779989809974901</v>
-      </c>
-      <c r="K44">
         <v>7889481</v>
       </c>
-      <c r="L44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C45">
         <v>18</v>
@@ -2240,34 +2229,34 @@
       <c r="D45">
         <v>3722</v>
       </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
       <c r="F45" t="s">
         <v>14</v>
       </c>
       <c r="G45" t="s">
         <v>15</v>
       </c>
-      <c r="H45" t="s">
-        <v>16</v>
+      <c r="H45">
+        <v>29.9</v>
       </c>
       <c r="I45">
-        <v>29.9</v>
+        <v>0.51611852311510997</v>
       </c>
       <c r="J45">
-        <v>0.51611852311510997</v>
-      </c>
-      <c r="K45">
         <v>9987029</v>
       </c>
-      <c r="L45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C46">
         <v>19</v>
@@ -2275,34 +2264,34 @@
       <c r="D46">
         <v>3722</v>
       </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
       <c r="F46" t="s">
         <v>14</v>
       </c>
       <c r="G46" t="s">
         <v>15</v>
       </c>
-      <c r="H46" t="s">
-        <v>16</v>
+      <c r="H46">
+        <v>11.5</v>
       </c>
       <c r="I46">
-        <v>11.5</v>
+        <v>0.69469617874295297</v>
       </c>
       <c r="J46">
-        <v>0.69469617874295297</v>
-      </c>
-      <c r="K46">
         <v>9339349</v>
       </c>
-      <c r="L46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C47">
         <v>20</v>
@@ -2310,34 +2299,34 @@
       <c r="D47">
         <v>3722</v>
       </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
       <c r="F47" t="s">
         <v>14</v>
       </c>
       <c r="G47" t="s">
         <v>15</v>
       </c>
-      <c r="H47" t="s">
-        <v>16</v>
+      <c r="H47">
+        <v>4.49</v>
       </c>
       <c r="I47">
-        <v>4.49</v>
+        <v>1.28451162149235</v>
       </c>
       <c r="J47">
-        <v>1.28451162149235</v>
-      </c>
-      <c r="K47">
         <v>8547157</v>
       </c>
-      <c r="L47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C48">
         <v>21</v>
@@ -2345,34 +2334,31 @@
       <c r="D48">
         <v>3722</v>
       </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
       <c r="F48" t="s">
         <v>14</v>
       </c>
       <c r="G48" t="s">
         <v>15</v>
       </c>
-      <c r="H48" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48">
+      <c r="H48">
         <v>0</v>
       </c>
-      <c r="J48" t="s">
-        <v>64</v>
-      </c>
-      <c r="K48">
+      <c r="J48">
         <v>960</v>
       </c>
-      <c r="L48" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C49">
         <v>22</v>
@@ -2380,34 +2366,31 @@
       <c r="D49">
         <v>3722</v>
       </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
       <c r="F49" t="s">
         <v>14</v>
       </c>
       <c r="G49" t="s">
         <v>15</v>
       </c>
-      <c r="H49" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49">
+      <c r="H49">
         <v>0</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49">
+        <v>683</v>
+      </c>
+      <c r="K49" t="s">
         <v>64</v>
       </c>
-      <c r="K49">
-        <v>683</v>
-      </c>
-      <c r="L49" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C50">
         <v>23</v>
@@ -2415,34 +2398,34 @@
       <c r="D50">
         <v>3722</v>
       </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
       <c r="F50" t="s">
         <v>14</v>
       </c>
       <c r="G50" t="s">
         <v>15</v>
       </c>
-      <c r="H50" t="s">
-        <v>16</v>
+      <c r="H50">
+        <v>0.59599999999999997</v>
       </c>
       <c r="I50">
-        <v>0.59599999999999997</v>
+        <v>8.8807324755752504</v>
       </c>
       <c r="J50">
-        <v>8.8807324755752504</v>
-      </c>
-      <c r="K50">
         <v>8639765</v>
       </c>
-      <c r="L50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C51">
         <v>24</v>
@@ -2450,34 +2433,34 @@
       <c r="D51">
         <v>3722</v>
       </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
       <c r="F51" t="s">
         <v>14</v>
       </c>
       <c r="G51" t="s">
         <v>15</v>
       </c>
-      <c r="H51" t="s">
-        <v>16</v>
+      <c r="H51">
+        <v>3.2</v>
       </c>
       <c r="I51">
-        <v>3.2</v>
+        <v>2.4696096014062401</v>
       </c>
       <c r="J51">
-        <v>2.4696096014062401</v>
-      </c>
-      <c r="K51">
         <v>8924968</v>
       </c>
-      <c r="L51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K51" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C52">
         <v>25</v>
@@ -2485,34 +2468,34 @@
       <c r="D52">
         <v>3722</v>
       </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
       <c r="F52" t="s">
         <v>14</v>
       </c>
       <c r="G52" t="s">
         <v>15</v>
       </c>
-      <c r="H52" t="s">
-        <v>16</v>
+      <c r="H52">
+        <v>238</v>
       </c>
       <c r="I52">
-        <v>238</v>
+        <v>3.6511194029850702</v>
       </c>
       <c r="J52">
-        <v>3.6511194029850702</v>
-      </c>
-      <c r="K52">
         <v>7336942</v>
       </c>
-      <c r="L52" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C53">
         <v>26</v>
@@ -2520,26 +2503,26 @@
       <c r="D53">
         <v>3722</v>
       </c>
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
       <c r="F53" t="s">
         <v>14</v>
       </c>
       <c r="G53" t="s">
         <v>15</v>
       </c>
-      <c r="H53" t="s">
-        <v>16</v>
+      <c r="H53">
+        <v>234</v>
       </c>
       <c r="I53">
-        <v>234</v>
+        <v>0.5</v>
       </c>
       <c r="J53">
-        <v>0.5</v>
-      </c>
-      <c r="K53">
         <v>12529332</v>
       </c>
-      <c r="L53" t="s">
-        <v>70</v>
+      <c r="K53" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
